--- a/EM02.xlsx
+++ b/EM02.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\report-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheeraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5087C48-8AD6-4303-AFE0-0684518F3BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD79AF-F4B1-4612-A9F1-3751A255FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Unique</t>
   </si>
@@ -48,30 +57,12 @@
     <t>Open</t>
   </si>
   <si>
-    <t>LGT1_yahoo_Open</t>
-  </si>
-  <si>
-    <t>Link01_yahoo_Open</t>
-  </si>
-  <si>
-    <t>MKT_yahoo_Open</t>
-  </si>
-  <si>
     <t>Unique_Open_Total</t>
   </si>
   <si>
     <t>Click</t>
   </si>
   <si>
-    <t>LGT1_yahoo_Click</t>
-  </si>
-  <si>
-    <t>Link01_yahoo_Click</t>
-  </si>
-  <si>
-    <t>MKT_yahoo_Click</t>
-  </si>
-  <si>
     <t>Unique_Click_Total</t>
   </si>
   <si>
@@ -90,27 +81,9 @@
     <t>Dup_Raw_Total</t>
   </si>
   <si>
-    <t>Dup_LGT1_Open</t>
-  </si>
-  <si>
-    <t>Dup_Link1_Open</t>
-  </si>
-  <si>
-    <t>Dup_Mkt_Open</t>
-  </si>
-  <si>
     <t>Dup_Open_Total</t>
   </si>
   <si>
-    <t>Dup_LGT1_Click</t>
-  </si>
-  <si>
-    <t>Dup_Link1_Click</t>
-  </si>
-  <si>
-    <t>Dup_Mkt_Click</t>
-  </si>
-  <si>
     <t>Dup_Click_Total</t>
   </si>
   <si>
@@ -178,6 +151,45 @@
   </si>
   <si>
     <t>Dup_MKT_Raw</t>
+  </si>
+  <si>
+    <t>Link1_Unique_Opn_yh</t>
+  </si>
+  <si>
+    <t>MKT_Unique_Opn_Yh</t>
+  </si>
+  <si>
+    <t>LGT1_Unique_Opn_yh</t>
+  </si>
+  <si>
+    <t>Link1_Unique_Clk_yh</t>
+  </si>
+  <si>
+    <t>MKT_Unique_Clk_Yh</t>
+  </si>
+  <si>
+    <t>LGT1_Unique_Clk_yh</t>
+  </si>
+  <si>
+    <t>MKT_Dupe_Opn_yh</t>
+  </si>
+  <si>
+    <t>LGT1_Dupe_Opn_Yh</t>
+  </si>
+  <si>
+    <t>Link1_Dupe_Opn_yh</t>
+  </si>
+  <si>
+    <t>MKT_Dupe_Clk_yh</t>
+  </si>
+  <si>
+    <t>LGT1_Dupe_Clk_Yh</t>
+  </si>
+  <si>
+    <t>Link1_Dupe_Clk_yh</t>
+  </si>
+  <si>
+    <t> 61821</t>
   </si>
 </sst>
 </file>
@@ -341,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -370,9 +382,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,97 +666,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M22:M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45544</v>
       </c>
@@ -763,8 +772,8 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23">
-        <v>61821</v>
+      <c r="I2" t="s">
+        <v>51</v>
       </c>
       <c r="R2" s="19" t="e">
         <f t="shared" ref="R2:S28" si="0">N2/M2</f>
@@ -783,7 +792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45544</v>
       </c>
@@ -799,7 +808,7 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3">
         <v>61824</v>
       </c>
       <c r="R3" s="19" t="e">
@@ -819,7 +828,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45544</v>
       </c>
@@ -835,7 +844,7 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4">
         <v>61827</v>
       </c>
       <c r="R4" s="19" t="e">
@@ -855,7 +864,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45544</v>
       </c>
@@ -867,8 +876,6 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
       <c r="J5" s="6">
         <f t="shared" ref="J5:Q5" si="3">SUM(J2:J4)</f>
         <v>0</v>
@@ -918,7 +925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45544</v>
       </c>
@@ -932,9 +939,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="23">
+        <v>39</v>
+      </c>
+      <c r="I6">
         <v>61822</v>
       </c>
       <c r="R6" s="19" t="e">
@@ -954,7 +961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45544</v>
       </c>
@@ -968,9 +975,9 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="23">
+        <v>40</v>
+      </c>
+      <c r="I7">
         <v>61825</v>
       </c>
       <c r="R7" s="19" t="e">
@@ -990,7 +997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45544</v>
       </c>
@@ -1004,9 +1011,9 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="23">
+        <v>41</v>
+      </c>
+      <c r="I8">
         <v>61828</v>
       </c>
       <c r="R8" s="19" t="e">
@@ -1026,20 +1033,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45544</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
       <c r="J9" s="6">
         <f t="shared" ref="J9:Q9" si="4">SUM(J6:J8)</f>
         <v>0</v>
@@ -1089,7 +1094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45544</v>
       </c>
@@ -1097,15 +1102,15 @@
         <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="23">
+        <v>42</v>
+      </c>
+      <c r="I10">
         <v>61823</v>
       </c>
       <c r="R10" s="19" t="e">
@@ -1125,7 +1130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45544</v>
       </c>
@@ -1133,15 +1138,15 @@
         <v>0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="23">
+        <v>43</v>
+      </c>
+      <c r="I11">
         <v>61826</v>
       </c>
       <c r="R11" s="19" t="e">
@@ -1161,7 +1166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45544</v>
       </c>
@@ -1169,15 +1174,15 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="23">
+        <v>44</v>
+      </c>
+      <c r="I12">
         <v>61829</v>
       </c>
       <c r="R12" s="19" t="e">
@@ -1197,20 +1202,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45544</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:Q13" si="5">SUM(J10:J12)</f>
         <v>0</v>
@@ -1260,7 +1263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45544</v>
       </c>
@@ -1268,12 +1271,10 @@
       <c r="C14" s="10"/>
       <c r="D14" s="5"/>
       <c r="E14" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
       <c r="J14" s="6">
         <f t="shared" ref="J14:Q14" si="6">SUM(J13,J9,J5)</f>
         <v>0</v>
@@ -1323,12 +1324,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45544</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>1</v>
@@ -1337,9 +1338,9 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="23">
+        <v>38</v>
+      </c>
+      <c r="I15">
         <v>61812</v>
       </c>
       <c r="R15" s="19" t="e">
@@ -1359,12 +1360,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45544</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>1</v>
@@ -1373,9 +1374,9 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="23">
+        <v>12</v>
+      </c>
+      <c r="I16">
         <v>62039</v>
       </c>
       <c r="R16" s="19" t="e">
@@ -1395,12 +1396,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45544</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>1</v>
@@ -1409,9 +1410,9 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="23">
+        <v>13</v>
+      </c>
+      <c r="I17">
         <v>61818</v>
       </c>
       <c r="R17" s="19" t="e">
@@ -1431,20 +1432,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45544</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
       <c r="J18" s="6">
         <f t="shared" ref="J18:Q18" si="7">SUM(J15:J17)</f>
         <v>0</v>
@@ -1494,12 +1493,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45544</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>6</v>
@@ -1508,9 +1507,9 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="23">
+        <v>45</v>
+      </c>
+      <c r="I19">
         <v>61813</v>
       </c>
       <c r="R19" s="19" t="e">
@@ -1530,12 +1529,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45544</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>6</v>
@@ -1544,9 +1543,9 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="23">
+        <v>46</v>
+      </c>
+      <c r="I20">
         <v>61816</v>
       </c>
       <c r="R20" s="19" t="e">
@@ -1566,12 +1565,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45544</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>6</v>
@@ -1580,9 +1579,9 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="23">
+        <v>47</v>
+      </c>
+      <c r="I21">
         <v>61819</v>
       </c>
       <c r="R21" s="19" t="e">
@@ -1602,20 +1601,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45544</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
       <c r="J22" s="6">
         <f t="shared" ref="J22:Q22" si="8">SUM(J19:J21)</f>
         <v>0</v>
@@ -1665,23 +1662,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45544</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="23">
+        <v>48</v>
+      </c>
+      <c r="I23">
         <v>61814</v>
       </c>
       <c r="R23" s="19" t="e">
@@ -1701,23 +1698,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45544</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="23">
+        <v>49</v>
+      </c>
+      <c r="I24">
         <v>61817</v>
       </c>
       <c r="R24" s="19" t="e">
@@ -1737,23 +1734,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45544</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="23">
+        <v>50</v>
+      </c>
+      <c r="I25">
         <v>61820</v>
       </c>
       <c r="R25" s="19" t="e">
@@ -1773,20 +1770,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45544</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
       <c r="J26" s="6">
         <f t="shared" ref="J26:Q26" si="9">SUM(J23:J25)</f>
         <v>0</v>
@@ -1836,7 +1831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45544</v>
       </c>
@@ -1844,12 +1839,10 @@
       <c r="C27" s="16"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
       <c r="J27" s="6">
         <f t="shared" ref="J27:Q27" si="10">SUM(J26,J22,J18)</f>
         <v>0</v>
@@ -1899,7 +1892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45544</v>
       </c>
@@ -1908,11 +1901,9 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
       <c r="J28" s="6">
         <f t="shared" ref="J28:Q28" si="11">SUM(J27,J14)</f>
         <v>0</v>

--- a/EM02.xlsx
+++ b/EM02.xlsx
@@ -5,36 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheeraj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD79AF-F4B1-4612-A9F1-3751A255FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389FE42-0DB9-48D5-826A-31C212A59BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Unique</t>
   </si>
@@ -187,9 +178,6 @@
   </si>
   <si>
     <t>Link1_Dupe_Clk_yh</t>
-  </si>
-  <si>
-    <t> 61821</t>
   </si>
 </sst>
 </file>
@@ -667,31 +655,31 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
@@ -756,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45544</v>
       </c>
@@ -772,8 +760,8 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>51</v>
+      <c r="I2">
+        <v>61821</v>
       </c>
       <c r="R2" s="19" t="e">
         <f t="shared" ref="R2:S28" si="0">N2/M2</f>
@@ -792,7 +780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45544</v>
       </c>
@@ -828,7 +816,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45544</v>
       </c>
@@ -864,7 +852,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45544</v>
       </c>
@@ -925,7 +913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45544</v>
       </c>
@@ -961,7 +949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45544</v>
       </c>
@@ -997,7 +985,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45544</v>
       </c>
@@ -1033,7 +1021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45544</v>
       </c>
@@ -1094,7 +1082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45544</v>
       </c>
@@ -1130,7 +1118,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45544</v>
       </c>
@@ -1166,7 +1154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45544</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45544</v>
       </c>
@@ -1263,7 +1251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45544</v>
       </c>
@@ -1324,7 +1312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45544</v>
       </c>
@@ -1360,7 +1348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45544</v>
       </c>
@@ -1396,7 +1384,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45544</v>
       </c>
@@ -1432,7 +1420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45544</v>
       </c>
@@ -1493,7 +1481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45544</v>
       </c>
@@ -1529,7 +1517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45544</v>
       </c>
@@ -1565,7 +1553,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45544</v>
       </c>
@@ -1601,7 +1589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45544</v>
       </c>
@@ -1662,7 +1650,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45544</v>
       </c>
@@ -1698,7 +1686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45544</v>
       </c>
@@ -1734,7 +1722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45544</v>
       </c>
@@ -1770,7 +1758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45544</v>
       </c>
@@ -1831,7 +1819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45544</v>
       </c>
@@ -1892,7 +1880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45544</v>
       </c>

--- a/EM02.xlsx
+++ b/EM02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheeraj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672490AD-42CB-4D9A-A189-F6F865829A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C5BCE-9533-4CFB-A569-65FFC67864A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -212,8 +203,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -283,7 +274,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Poppins"/>
     </font>
   </fonts>
@@ -331,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -355,27 +346,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -388,16 +360,16 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -418,23 +390,36 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -720,32 +705,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="19" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="19" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
@@ -764,13 +749,13 @@
       <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -810,7 +795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -823,7 +808,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="25">
@@ -846,7 +831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -859,7 +844,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="25">
@@ -882,7 +867,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -895,7 +880,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="25">
@@ -918,7 +903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -948,7 +933,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -978,7 +963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1008,7 +993,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1019,9 +1004,9 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="8">
         <f t="shared" ref="J8:L8" si="3">SUM(J2:J7)</f>
         <v>0</v>
@@ -1071,7 +1056,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1084,11 +1069,11 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24">
+      <c r="H9" s="30"/>
+      <c r="I9" s="28">
         <v>61822</v>
       </c>
       <c r="R9" s="4" t="e">
@@ -1108,7 +1093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1121,11 +1106,11 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24">
+      <c r="H10" s="30"/>
+      <c r="I10" s="28">
         <v>61825</v>
       </c>
       <c r="R10" s="4" t="e">
@@ -1145,7 +1130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1158,11 +1143,11 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24">
+      <c r="H11" s="30"/>
+      <c r="I11" s="28">
         <v>61828</v>
       </c>
       <c r="R11" s="4" t="e">
@@ -1182,7 +1167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1195,11 +1180,11 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24">
+      <c r="H12" s="30"/>
+      <c r="I12" s="28">
         <v>62629</v>
       </c>
       <c r="R12" s="4" t="e">
@@ -1219,7 +1204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1232,9 +1217,9 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="28"/>
       <c r="R13" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1252,7 +1237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1265,9 +1250,9 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
       <c r="R14" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1285,7 +1270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1296,9 +1281,9 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="8">
         <f>SUM(J9:J14)</f>
         <v>0</v>
@@ -1348,7 +1333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1361,11 +1346,11 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24">
+      <c r="H16" s="30"/>
+      <c r="I16" s="28">
         <v>61823</v>
       </c>
       <c r="R16" s="4" t="e">
@@ -1385,7 +1370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1398,11 +1383,11 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24">
+      <c r="H17" s="30"/>
+      <c r="I17" s="28">
         <v>61826</v>
       </c>
       <c r="R17" s="4" t="e">
@@ -1422,7 +1407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1435,11 +1420,11 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24">
+      <c r="H18" s="30"/>
+      <c r="I18" s="28">
         <v>61829</v>
       </c>
       <c r="R18" s="4" t="e">
@@ -1459,7 +1444,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1472,11 +1457,11 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26">
+      <c r="H19" s="30"/>
+      <c r="I19" s="28">
         <v>62630</v>
       </c>
       <c r="R19" s="4" t="e">
@@ -1496,7 +1481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1509,9 +1494,9 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28"/>
       <c r="R20" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1529,7 +1514,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1559,7 +1544,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1570,9 +1555,9 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="8">
         <f t="shared" ref="J22:L22" si="5">SUM(J16:J21)</f>
         <v>0</v>
@@ -1622,7 +1607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1633,9 +1618,9 @@
         <v>10</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="8">
         <f>SUM(J22,J15,J8)</f>
         <v>0</v>
@@ -1685,7 +1670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1698,7 +1683,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="28" t="s">
         <v>39</v>
       </c>
       <c r="I24" s="25">
@@ -1721,7 +1706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1734,7 +1719,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="25">
@@ -1757,7 +1742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1770,7 +1755,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="25">
@@ -1793,7 +1778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1823,7 +1808,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1838,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,7 +1868,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1896,7 +1881,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="15"/>
       <c r="R30" s="4" t="e">
         <f t="shared" si="0"/>
@@ -1915,7 +1900,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1926,9 +1911,9 @@
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="8">
         <f t="shared" ref="J31" si="7">SUM(J24:J30)</f>
         <v>0</v>
@@ -1978,7 +1963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1991,11 +1976,11 @@
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26">
+      <c r="H32" s="30"/>
+      <c r="I32" s="28">
         <v>61813</v>
       </c>
       <c r="R32" s="4" t="e">
@@ -2015,7 +2000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2028,11 +2013,11 @@
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26">
+      <c r="H33" s="30"/>
+      <c r="I33" s="28">
         <v>61816</v>
       </c>
       <c r="R33" s="4" t="e">
@@ -2052,7 +2037,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -2065,11 +2050,11 @@
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26">
+      <c r="H34" s="30"/>
+      <c r="I34" s="28">
         <v>61819</v>
       </c>
       <c r="R34" s="4" t="e">
@@ -2089,7 +2074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2102,11 +2087,11 @@
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26">
+      <c r="H35" s="30"/>
+      <c r="I35" s="28">
         <v>62631</v>
       </c>
       <c r="R35" s="4" t="e">
@@ -2126,7 +2111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2139,9 +2124,9 @@
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="28"/>
       <c r="R36" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2159,7 +2144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2189,7 +2174,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2219,7 +2204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2230,9 +2215,9 @@
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="8">
         <f t="shared" ref="J39:L39" si="9">SUM(J32:J38)</f>
         <v>0</v>
@@ -2282,7 +2267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2295,10 +2280,10 @@
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="29">
         <v>61814</v>
       </c>
       <c r="R40" s="4" t="e">
@@ -2318,7 +2303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2331,10 +2316,10 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="29">
         <v>61817</v>
       </c>
       <c r="R41" s="4" t="e">
@@ -2354,7 +2339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,10 +2352,10 @@
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="29">
         <v>61820</v>
       </c>
       <c r="R42" s="4" t="e">
@@ -2390,7 +2375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -2403,10 +2388,10 @@
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="33">
         <v>62632</v>
       </c>
       <c r="R43" s="4" t="e">
@@ -2426,7 +2411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -2456,7 +2441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2486,7 +2471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2516,7 +2501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -2527,9 +2512,9 @@
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="8">
         <f t="shared" ref="J47:L47" si="10">SUM(J40:J46)</f>
         <v>0</v>
@@ -2579,7 +2564,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
@@ -2590,9 +2575,9 @@
         <v>17</v>
       </c>
       <c r="F48" s="14"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="8">
         <f t="shared" ref="J48:L48" si="11">SUM(J47,J39,J31)</f>
         <v>0</v>
@@ -2642,7 +2627,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -2653,9 +2638,9 @@
       <c r="F49" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="8">
         <f t="shared" ref="J49:L49" si="12">SUM(J48,J23)</f>
         <v>0</v>
